--- a/mall4/src/main/webapp/WEB-INF/mall4_기능리스트.xlsx
+++ b/mall4/src/main/webapp/WEB-INF/mall4_기능리스트.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +168,14 @@
   </si>
   <si>
     <t>비밀번호확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 구현 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +225,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -299,7 +314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,11 +360,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,10 +800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -794,199 +818,207 @@
     <col min="8" max="8" width="33.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="A6" s="10"/>
+      <c r="B6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="B7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="D8" s="11" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E8" s="11"/>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
+      <c r="B9" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="D11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H13" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
